--- a/TrashAndMore/ProjektplanMBSE.xlsx
+++ b/TrashAndMore/ProjektplanMBSE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunipaderbornde-my.sharepoint.com/personal/lukasc_mail_uni-paderborn_de/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\git\recipeManager\TrashAndMore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{6198EF46-1895-4E42-893E-C3158CAE7FCC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{95D77ED7-6CBC-41FD-B061-19B5D397C4F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22DBF10-FDE6-47F9-8F14-DAAF60A384A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,8 +1015,8 @@
   </sheetPr>
   <dimension ref="B1:AO18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1051,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
@@ -1378,8 +1378,12 @@
       <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
       <c r="G11" s="8">
         <v>0</v>
       </c>
@@ -1389,13 +1393,17 @@
         <v>28</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>3</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
       <c r="G12" s="8">
         <v>0</v>
       </c>
